--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Mag</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.626646310639201</v>
+        <v>0.6610796666666666</v>
       </c>
       <c r="H2">
-        <v>0.626646310639201</v>
+        <v>1.983239</v>
       </c>
       <c r="I2">
-        <v>0.3202362189676881</v>
+        <v>0.2677179076566869</v>
       </c>
       <c r="J2">
-        <v>0.3202362189676881</v>
+        <v>0.2677179076566869</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6044806768313</v>
+        <v>0.7885686666666668</v>
       </c>
       <c r="N2">
-        <v>0.6044806768313</v>
+        <v>2.365706</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4566863346753138</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4566863346753137</v>
       </c>
       <c r="Q2">
-        <v>0.3787955859890213</v>
+        <v>0.5213067113037778</v>
       </c>
       <c r="R2">
-        <v>0.3787955859890213</v>
+        <v>4.691760401734</v>
       </c>
       <c r="S2">
-        <v>0.3202362189676881</v>
+        <v>0.1222631099746765</v>
       </c>
       <c r="T2">
-        <v>0.3202362189676881</v>
+        <v>0.1222631099746764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.14514959478543</v>
+        <v>0.6610796666666666</v>
       </c>
       <c r="H3">
-        <v>1.14514959478543</v>
+        <v>1.983239</v>
       </c>
       <c r="I3">
-        <v>0.5852079078107086</v>
+        <v>0.2677179076566869</v>
       </c>
       <c r="J3">
-        <v>0.5852079078107086</v>
+        <v>0.2677179076566869</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6044806768313</v>
+        <v>0.9381496666666668</v>
       </c>
       <c r="N3">
-        <v>0.6044806768313</v>
+        <v>2.814449</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5433136653246862</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5433136653246862</v>
       </c>
       <c r="Q3">
-        <v>0.6922208021289857</v>
+        <v>0.6201916689234445</v>
       </c>
       <c r="R3">
-        <v>0.6922208021289857</v>
+        <v>5.581725020311</v>
       </c>
       <c r="S3">
-        <v>0.5852079078107086</v>
+        <v>0.1454547976820104</v>
       </c>
       <c r="T3">
-        <v>0.5852079078107086</v>
+        <v>0.1454547976820104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.185029317716134</v>
+        <v>1.310047666666666</v>
       </c>
       <c r="H4">
-        <v>0.185029317716134</v>
+        <v>3.930143</v>
       </c>
       <c r="I4">
-        <v>0.09455587322160344</v>
+        <v>0.5305309449600247</v>
       </c>
       <c r="J4">
-        <v>0.09455587322160344</v>
+        <v>0.5305309449600246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6044806768313</v>
+        <v>0.7885686666666668</v>
       </c>
       <c r="N4">
-        <v>0.6044806768313</v>
+        <v>2.365706</v>
       </c>
       <c r="O4">
+        <v>0.4566863346753138</v>
+      </c>
+      <c r="P4">
+        <v>0.4566863346753137</v>
+      </c>
+      <c r="Q4">
+        <v>1.033062541773111</v>
+      </c>
+      <c r="R4">
+        <v>9.297562875958</v>
+      </c>
+      <c r="S4">
+        <v>0.2422862326856243</v>
+      </c>
+      <c r="T4">
+        <v>0.2422862326856242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="G5">
+        <v>1.310047666666666</v>
+      </c>
+      <c r="H5">
+        <v>3.930143</v>
+      </c>
+      <c r="I5">
+        <v>0.5305309449600247</v>
+      </c>
+      <c r="J5">
+        <v>0.5305309449600246</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.9381496666666668</v>
+      </c>
+      <c r="N5">
+        <v>2.814449</v>
+      </c>
+      <c r="O5">
+        <v>0.5433136653246862</v>
+      </c>
+      <c r="P5">
+        <v>0.5433136653246862</v>
+      </c>
+      <c r="Q5">
+        <v>1.229020781800778</v>
+      </c>
+      <c r="R5">
+        <v>11.061187036207</v>
+      </c>
+      <c r="S5">
+        <v>0.2882447122744003</v>
+      </c>
+      <c r="T5">
+        <v>0.2882447122744003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.311447</v>
+      </c>
+      <c r="H6">
+        <v>0.934341</v>
+      </c>
+      <c r="I6">
+        <v>0.1261269153933825</v>
+      </c>
+      <c r="J6">
+        <v>0.1261269153933825</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0.1118466472066823</v>
-      </c>
-      <c r="R4">
-        <v>0.1118466472066823</v>
-      </c>
-      <c r="S4">
-        <v>0.09455587322160344</v>
-      </c>
-      <c r="T4">
-        <v>0.09455587322160344</v>
+      <c r="M6">
+        <v>0.7885686666666668</v>
+      </c>
+      <c r="N6">
+        <v>2.365706</v>
+      </c>
+      <c r="O6">
+        <v>0.4566863346753138</v>
+      </c>
+      <c r="P6">
+        <v>0.4566863346753137</v>
+      </c>
+      <c r="Q6">
+        <v>0.2455973455273334</v>
+      </c>
+      <c r="R6">
+        <v>2.210376109746</v>
+      </c>
+      <c r="S6">
+        <v>0.05760043869490727</v>
+      </c>
+      <c r="T6">
+        <v>0.05760043869490726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.311447</v>
+      </c>
+      <c r="H7">
+        <v>0.934341</v>
+      </c>
+      <c r="I7">
+        <v>0.1261269153933825</v>
+      </c>
+      <c r="J7">
+        <v>0.1261269153933825</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.9381496666666668</v>
+      </c>
+      <c r="N7">
+        <v>2.814449</v>
+      </c>
+      <c r="O7">
+        <v>0.5433136653246862</v>
+      </c>
+      <c r="P7">
+        <v>0.5433136653246862</v>
+      </c>
+      <c r="Q7">
+        <v>0.2921838992343334</v>
+      </c>
+      <c r="R7">
+        <v>2.629655093109</v>
+      </c>
+      <c r="S7">
+        <v>0.06852647669847522</v>
+      </c>
+      <c r="T7">
+        <v>0.06852647669847522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.18674</v>
+      </c>
+      <c r="H8">
+        <v>0.5602199999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.07562423198990599</v>
+      </c>
+      <c r="J8">
+        <v>0.07562423198990596</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7885686666666668</v>
+      </c>
+      <c r="N8">
+        <v>2.365706</v>
+      </c>
+      <c r="O8">
+        <v>0.4566863346753138</v>
+      </c>
+      <c r="P8">
+        <v>0.4566863346753137</v>
+      </c>
+      <c r="Q8">
+        <v>0.1472573128133333</v>
+      </c>
+      <c r="R8">
+        <v>1.32531581532</v>
+      </c>
+      <c r="S8">
+        <v>0.03453655332010578</v>
+      </c>
+      <c r="T8">
+        <v>0.03453655332010576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.18674</v>
+      </c>
+      <c r="H9">
+        <v>0.5602199999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.07562423198990599</v>
+      </c>
+      <c r="J9">
+        <v>0.07562423198990596</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.9381496666666668</v>
+      </c>
+      <c r="N9">
+        <v>2.814449</v>
+      </c>
+      <c r="O9">
+        <v>0.5433136653246862</v>
+      </c>
+      <c r="P9">
+        <v>0.5433136653246862</v>
+      </c>
+      <c r="Q9">
+        <v>0.1751900687533333</v>
+      </c>
+      <c r="R9">
+        <v>1.57671061878</v>
+      </c>
+      <c r="S9">
+        <v>0.04108767866980021</v>
+      </c>
+      <c r="T9">
+        <v>0.0410876786698002</v>
       </c>
     </row>
   </sheetData>
